--- a/config_6.22/fish_am_yutu_random_3.xlsx
+++ b/config_6.22/fish_am_yutu_random_3.xlsx
@@ -237,8 +237,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -263,22 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -294,14 +278,95 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -324,64 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -390,25 +397,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -445,13 +445,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,25 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,133 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,11 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +668,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +698,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,10 +730,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -715,47 +745,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,138 +764,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I18"/>
+      <selection activeCell="I14" sqref="I14:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1850,10 +1850,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J14" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1878,10 +1878,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J15" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1906,10 +1906,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J16" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1934,10 +1934,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J17" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1962,10 +1962,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J18" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.22/fish_am_yutu_random_3.xlsx
+++ b/config_6.22/fish_am_yutu_random_3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>no</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>128,129,130,</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
@@ -237,9 +240,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -270,15 +273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,48 +286,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,9 +309,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,9 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +371,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,14 +414,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -439,13 +442,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,169 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,41 +651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +686,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -737,25 +725,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,138 +767,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1526,10 +1529,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J18"/>
+      <selection activeCell="I18" sqref="I18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1962,9 +1965,37 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
+        <v>1623167999</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1623254399</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2400</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5">
         <v>1624320000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>1624895999</v>
       </c>
     </row>

--- a/config_6.22/fish_am_yutu_random_3.xlsx
+++ b/config_6.22/fish_am_yutu_random_3.xlsx
@@ -231,7 +231,7 @@
     <t>128,129,130,</t>
   </si>
   <si>
-    <t>137</t>
+    <t>137,</t>
   </si>
 </sst>
 </file>
@@ -239,9 +239,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -266,8 +266,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,20 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,59 +382,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,23 +401,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -442,187 +442,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +655,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,26 +707,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,30 +743,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -751,14 +751,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,138 +767,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
